--- a/Ressources/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023 (1).xlsx
+++ b/Ressources/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023 (1).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>▢</t>
     </r>
     <r>
@@ -68,6 +74,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>▢</t>
     </r>
     <r>
@@ -148,7 +160,7 @@
 </t>
   </si>
   <si>
-    <t>Creation de site web gérance de parking</t>
+    <t>Creation de site web (gérance de parking)</t>
   </si>
   <si>
     <t>X</t>
@@ -167,6 +179,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Calculatrice (PHP)</t>
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
@@ -192,12 +207,7 @@
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="32">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1123,311 +1133,311 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1845,7 +1855,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8518518518519" defaultRowHeight="13.2"/>
@@ -2316,7 +2326,9 @@
       <c r="AQ13"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:43">
-      <c r="A14" s="29"/>
+      <c r="A14" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" s="30"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -2542,7 +2554,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="17.4" spans="1:43">
       <c r="A19" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -2589,7 +2601,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:43">
       <c r="A20" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="33"/>
@@ -2640,7 +2652,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:43">
       <c r="A21" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>26</v>
@@ -2919,7 +2931,7 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="17.4" spans="1:43">
       <c r="A27" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
